--- a/00_Analysis_All_Algorithm.xlsx
+++ b/00_Analysis_All_Algorithm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>Y Mean</t>
   </si>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">I.G = 0 </t>
   </si>
   <si>
-    <t>Confusion Matrix</t>
-  </si>
-  <si>
     <t>End Classifier</t>
   </si>
   <si>
@@ -248,6 +245,12 @@
   </si>
   <si>
     <t>program</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,12 +546,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -697,30 +699,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187527936"/>
-        <c:axId val="187529856"/>
+        <c:axId val="189690624"/>
+        <c:axId val="189692544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187527936"/>
+        <c:axId val="189690624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187529856"/>
+        <c:crossAx val="189692544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187529856"/>
+        <c:axId val="189692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,21 +730,19 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187527936"/>
+        <c:crossAx val="189690624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2257,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,21 +2277,22 @@
     <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" s="28"/>
       <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>43</v>
@@ -2316,7 +2316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>45</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="G4" s="34" t="s">
         <v>49</v>
       </c>
@@ -2376,11 +2376,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="49"/>
       <c r="G5" s="34"/>
       <c r="I5" s="26" t="s">
         <v>35</v>
@@ -2401,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G6" s="34"/>
       <c r="I6" s="26" t="s">
         <v>36</v>
@@ -2422,7 +2422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>29</v>
       </c>
@@ -2456,8 +2456,21 @@
       <c r="N7" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="2">
+        <f>SUM(U8:U10)</f>
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>34</v>
       </c>
@@ -2501,8 +2514,27 @@
       <c r="N8" s="30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8">
+        <f>(B8/D8)^2</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="S8">
+        <f>(C8/D8)^2</f>
+        <v>0.36</v>
+      </c>
+      <c r="T8">
+        <f>1-SUM(R8:S8)</f>
+        <v>0.48</v>
+      </c>
+      <c r="U8">
+        <f>(D8/$D$3)*T8</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>35</v>
       </c>
@@ -2542,8 +2574,27 @@
       <c r="N9" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="1">
+        <f>(B9/D9)^2</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <f>(C9/D9)^2</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>1-SUM(R9:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f>(D9/$D$3)*T9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>36</v>
       </c>
@@ -2583,8 +2634,27 @@
       <c r="N10" s="30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(B10/D10)^2</f>
+        <v>0.36</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(C10/D10)^2</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="T10" s="1">
+        <f>1-SUM(R10:S10)</f>
+        <v>0.48</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(D10/$D$3)*T10</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="I11" s="26" t="s">
@@ -2606,7 +2676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>48</v>
       </c>
@@ -2642,8 +2712,15 @@
       <c r="N12" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12">
+        <f>SUM(U13:U15)</f>
+        <v>0.44047619047619047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>37</v>
       </c>
@@ -2687,8 +2764,27 @@
       <c r="N13" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="1">
+        <f>(B13/D13)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="S13" s="1">
+        <f>(C13/D13)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="T13" s="1">
+        <f>1-SUM(R13:S13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U13" s="1">
+        <f>(D13/$D$3)*T13</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>38</v>
       </c>
@@ -2728,8 +2824,27 @@
       <c r="N14" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="1">
+        <f>(B14/D14)^2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="S14" s="1">
+        <f>(C14/D14)^2</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T14" s="1">
+        <f>1-SUM(R14:S14)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="U14" s="1">
+        <f>(D14/$D$3)*T14</f>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>39</v>
       </c>
@@ -2769,8 +2884,27 @@
       <c r="N15" s="30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="1">
+        <f>(B15/D15)^2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="S15" s="1">
+        <f>(C15/D15)^2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <f>1-SUM(R15:S15)</f>
+        <v>0.375</v>
+      </c>
+      <c r="U15" s="1">
+        <f>(D15/$D$3)*T15</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="26" t="s">
         <v>36</v>
       </c>
@@ -2809,6 +2943,13 @@
         <v>47</v>
       </c>
       <c r="L17" s="25"/>
+      <c r="Q17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17">
+        <f>SUM(U18:U19)</f>
+        <v>0.36734693877551028</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
@@ -2843,6 +2984,25 @@
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
+      <c r="Q18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="1">
+        <f>(B18/D18)^2</f>
+        <v>0.18367346938775508</v>
+      </c>
+      <c r="S18" s="1">
+        <f>(C18/D18)^2</f>
+        <v>0.32653061224489793</v>
+      </c>
+      <c r="T18">
+        <f>1-SUM(R18:S18)</f>
+        <v>0.48979591836734704</v>
+      </c>
+      <c r="U18">
+        <f>(D18/D$3)*T18</f>
+        <v>0.24489795918367352</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
@@ -2865,6 +3025,25 @@
       <c r="F19" s="1">
         <f>(D19/$D$3)*E19</f>
         <v>0.29583638929116374</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="1">
+        <f>(B19/D19)^2</f>
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="S19" s="1">
+        <f>(C19/D19)^2</f>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <f>1-SUM(R19:S19)</f>
+        <v>0.24489795918367352</v>
+      </c>
+      <c r="U19" s="1">
+        <f>(D19/D$3)*T19</f>
+        <v>0.12244897959183676</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2917,6 +3096,13 @@
       <c r="L22" t="s">
         <v>36</v>
       </c>
+      <c r="Q22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22">
+        <f>SUM(U23:U24)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="b">
@@ -2947,6 +3133,25 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
+      <c r="Q23" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <f>(B23/D23)^2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="S23" s="1">
+        <f>(C23/D23)^2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T23">
+        <f>1-SUM(R23:S23)</f>
+        <v>0.375</v>
+      </c>
+      <c r="U23">
+        <f>(D23/$D$3)*T23</f>
+        <v>0.21428571428571427</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="b">
@@ -2981,6 +3186,25 @@
         <v>32</v>
       </c>
       <c r="M24" s="12"/>
+      <c r="Q24" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <f>(B24/D24)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="S24" s="1">
+        <f>(C24/D24)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="T24">
+        <f>1-SUM(R24:S24)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="1">
+        <f>(D24/$D$3)*T24</f>
+        <v>0.21428571428571427</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
@@ -3037,6 +3261,9 @@
         <v>53</v>
       </c>
       <c r="B27" s="48"/>
+      <c r="Q27" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3048,11 +3275,17 @@
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
@@ -3068,15 +3301,21 @@
       <c r="E29" s="1"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
     </row>
@@ -3102,16 +3341,24 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" s="5">
+        <v>2</v>
+      </c>
+      <c r="S30" s="5">
+        <v>3</v>
+      </c>
+      <c r="T30" s="52">
+        <v>5</v>
+      </c>
+      <c r="U30" s="42"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I31" s="14"/>
@@ -3154,11 +3401,16 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
+      <c r="U32" s="14">
+        <f>SUM(U33:U35)</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
@@ -3184,7 +3436,7 @@
       </c>
       <c r="G33" s="24">
         <f>$E$30-SUM(F33:F35)</f>
-        <v>0.82809345159752579</v>
+        <v>0.57095059445466856</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="42"/>
@@ -3194,11 +3446,25 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
+      <c r="Q33" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="14">
+        <f>(B33/D33)^2</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="14">
+        <f>(C33/D33)^2</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="14">
+        <f>1-SUM(R33:S33)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="14">
+        <f>(D33/$D$30)*T33</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -3219,8 +3485,8 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f>(D34/$D$3)*E34</f>
-        <v>0.14285714285714285</v>
+        <f>(D34/$D$30)*E34</f>
+        <v>0.4</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="43"/>
@@ -3230,11 +3496,25 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
+      <c r="Q34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" s="14">
+        <f>(B34/D34)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="S34" s="14">
+        <f>(C34/D34)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="T34" s="14">
+        <f>1-SUM(R34:S34)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U34" s="14">
+        <f>(D34/$D$30)*T34</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
@@ -3255,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <f>(D35/$D$3)*E35</f>
+        <f>(D35/$D$30)*E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="14"/>
@@ -3266,11 +3546,25 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
+      <c r="Q35" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="14">
+        <f>(B35/D35)^2</f>
+        <v>1</v>
+      </c>
+      <c r="S35" s="14">
+        <f>(C35/D35)^2</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="14">
+        <f>1-SUM(R35:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <f>(D35/$D$30)*T35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I36" s="14"/>
@@ -3313,11 +3607,16 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
+      <c r="U37" s="14">
+        <f>SUM(U38:U39)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
@@ -3353,11 +3652,25 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
+      <c r="Q38" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="14">
+        <f>(B38/D38)^2</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="14">
+        <f>(C38/D38)^2</f>
+        <v>1</v>
+      </c>
+      <c r="T38" s="14">
+        <f>1-SUM(R38:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="14">
+        <f>(D38/$D$30)*T38</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
@@ -3378,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <f>(D39/$D$3)*E39</f>
+        <f>(D39/$D$30)*E39</f>
         <v>0</v>
       </c>
       <c r="I39" s="14"/>
@@ -3389,11 +3702,25 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
+      <c r="Q39" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="14">
+        <f>(B39/D39)^2</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="14">
+        <f>(C39/D39)^2</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="14">
+        <f>1-SUM(R39:S39)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="14">
+        <f>(D39/$D$30)*T39</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
@@ -3408,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <f>(D40/$D$3)*E40</f>
+        <f>(D40/$D$30)*E40</f>
         <v>0</v>
       </c>
       <c r="I40" s="14"/>
@@ -3434,7 +3761,6 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -3466,11 +3792,16 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
+      <c r="Q42" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
+      <c r="U42" s="14">
+        <f>SUM(U43:U44)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="b">
@@ -3496,9 +3827,28 @@
       </c>
       <c r="G43" s="24">
         <f>$E$30-SUM(F43:F45)</f>
-        <v>0.27711595116483201</v>
+        <v>1.9973094021974891E-2</v>
       </c>
       <c r="J43" s="1"/>
+      <c r="Q43" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f>(B43/D43)^2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="S43">
+        <f>(C43/D43)^2</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T43">
+        <f>1-SUM(R43:S43)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="U43">
+        <f>D43/$D$30</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="b">
@@ -3519,10 +3869,29 @@
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f>(D44/$D$3)*E44</f>
-        <v>0.14285714285714285</v>
+        <f>(D44/$D$30)*E44</f>
+        <v>0.4</v>
       </c>
       <c r="J44" s="1"/>
+      <c r="Q44" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
+        <f>(B44/D44)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="S44" s="1">
+        <f>(C44/D44)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="T44" s="1">
+        <f>1-SUM(R44:S44)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U44" s="1">
+        <f>D44/$D$30</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
@@ -3619,12 +3988,12 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <f>(D51/$D$30)*E51</f>
+        <f>(D51/$D$48)*E51</f>
         <v>0</v>
       </c>
       <c r="G51" s="24">
         <f>$E$48-SUM(F51:F53)</f>
-        <v>0.82809345159752579</v>
+        <v>0.57095059445466856</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -3647,8 +4016,8 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <f>(D52/$D$3)*E52</f>
-        <v>0.14285714285714285</v>
+        <f>(D52/$D$48)*E52</f>
+        <v>0.4</v>
       </c>
       <c r="J52" s="1"/>
     </row>
@@ -3671,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <f>(D53/$D$3)*E53</f>
+        <f>(D53/$D$48)*E53</f>
         <v>0</v>
       </c>
       <c r="J53" s="1"/>
@@ -3723,12 +4092,12 @@
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <f>(D56/$D$30)*E56</f>
+        <f>(D56/$D$48)*E56</f>
         <v>0.4</v>
       </c>
       <c r="G56" s="36">
         <f>$E$48-SUM(F56:F58)</f>
-        <v>0.37417291572870659</v>
+        <v>1.9973094021974891E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3750,8 +4119,8 @@
         <v>0.91829583405448956</v>
       </c>
       <c r="F57" s="1">
-        <f>(D57/$D$3)*E57</f>
-        <v>0.19677767872596202</v>
+        <f>(D57/$D$48)*E57</f>
+        <v>0.55097750043269367</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3767,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <f>(D58/$D$3)*E58</f>
+        <f>(D58/$D$48)*E58</f>
         <v>0</v>
       </c>
     </row>
@@ -3816,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <f>(D61/$D$30)*E61</f>
+        <f>(D61/$D$48)*E61</f>
         <v>0</v>
       </c>
       <c r="G61" s="24">
@@ -3843,26 +4212,21 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <f>(D62/$D$3)*E62</f>
+        <f>(D62/$D$48)*E62</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="K29:S29"/>
+  <mergeCells count="6">
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I18:M18"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3871,7 +4235,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3887,7 +4251,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -3904,7 +4268,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3921,13 +4285,13 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,31 +4774,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
